--- a/Logical-Analyzer-traces/full/analyses-full.xlsx
+++ b/Logical-Analyzer-traces/full/analyses-full.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homeautomation\Itho\Captures (incl GDO0)\Full\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HomeAutomation\Itho\Captures (incl GDO0)\Full\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="769" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="769" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SPI" sheetId="1" r:id="rId1"/>
@@ -5211,7 +5211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5239,9 +5239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5279,7 +5279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5351,7 +5351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16052,7 +16052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18164,7 +18166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="F428" sqref="F428"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23483,10 +23487,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="D405" sqref="D405:D408"/>
+    <sheetView topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="E400" sqref="E400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23495,7 +23499,7 @@
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>874</v>
       </c>
@@ -23507,7 +23511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>875</v>
       </c>
@@ -23519,7 +23523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>876</v>
       </c>
@@ -23531,7 +23535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>877</v>
       </c>
@@ -23543,7 +23547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>878</v>
       </c>
@@ -23555,7 +23559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>879</v>
       </c>
@@ -23567,7 +23571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>880</v>
       </c>
@@ -23579,7 +23583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>881</v>
       </c>
@@ -23594,8 +23598,12 @@
         <f>CONCATENATE(C1,C2,C3,C4,C5,C6,C7,C8)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>BIN2DEC(D8)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>882</v>
       </c>
@@ -23607,7 +23615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>883</v>
       </c>
@@ -23619,7 +23627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>884</v>
       </c>
@@ -23631,7 +23639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>885</v>
       </c>
@@ -23643,7 +23651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>886</v>
       </c>
@@ -23655,7 +23663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>887</v>
       </c>
@@ -23667,7 +23675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>888</v>
       </c>
@@ -23679,7 +23687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>889</v>
       </c>
@@ -23694,8 +23702,12 @@
         <f t="shared" ref="D16" si="1">CONCATENATE(C9,C10,C11,C12,C13,C14,C15,C16)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>BIN2DEC(D16)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>890</v>
       </c>
@@ -23707,7 +23719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>891</v>
       </c>
@@ -23719,7 +23731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>892</v>
       </c>
@@ -23731,7 +23743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>893</v>
       </c>
@@ -23743,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>894</v>
       </c>
@@ -23755,7 +23767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>895</v>
       </c>
@@ -23767,7 +23779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>896</v>
       </c>
@@ -23779,7 +23791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>897</v>
       </c>
@@ -23794,8 +23806,12 @@
         <f t="shared" ref="D24" si="2">CONCATENATE(C17,C18,C19,C20,C21,C22,C23,C24)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>BIN2DEC(D24)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>898</v>
       </c>
@@ -23807,7 +23823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>899</v>
       </c>
@@ -23819,7 +23835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>900</v>
       </c>
@@ -23831,7 +23847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>901</v>
       </c>
@@ -23843,7 +23859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>902</v>
       </c>
@@ -23855,7 +23871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>903</v>
       </c>
@@ -23867,7 +23883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>904</v>
       </c>
@@ -23879,7 +23895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>905</v>
       </c>
@@ -23894,8 +23910,12 @@
         <f t="shared" ref="D32" si="3">CONCATENATE(C25,C26,C27,C28,C29,C30,C31,C32)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f>BIN2DEC(D32)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>906</v>
       </c>
@@ -23907,7 +23927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>907</v>
       </c>
@@ -23919,7 +23939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>908</v>
       </c>
@@ -23931,7 +23951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>909</v>
       </c>
@@ -23943,7 +23963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>910</v>
       </c>
@@ -23955,7 +23975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>911</v>
       </c>
@@ -23967,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>912</v>
       </c>
@@ -23979,7 +23999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>913</v>
       </c>
@@ -23994,8 +24014,12 @@
         <f t="shared" ref="D40" si="4">CONCATENATE(C33,C34,C35,C36,C37,C38,C39,C40)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f>BIN2DEC(D40)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>914</v>
       </c>
@@ -24007,7 +24031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>915</v>
       </c>
@@ -24019,7 +24043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>916</v>
       </c>
@@ -24031,7 +24055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>917</v>
       </c>
@@ -24043,7 +24067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>918</v>
       </c>
@@ -24055,7 +24079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>919</v>
       </c>
@@ -24067,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>920</v>
       </c>
@@ -24079,7 +24103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>921</v>
       </c>
@@ -24094,8 +24118,12 @@
         <f t="shared" ref="D48" si="5">CONCATENATE(C41,C42,C43,C44,C45,C46,C47,C48)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f>BIN2DEC(D48)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>922</v>
       </c>
@@ -24107,7 +24135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>923</v>
       </c>
@@ -24119,7 +24147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>924</v>
       </c>
@@ -24131,7 +24159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>925</v>
       </c>
@@ -24143,7 +24171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>926</v>
       </c>
@@ -24155,7 +24183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>927</v>
       </c>
@@ -24167,7 +24195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>928</v>
       </c>
@@ -24179,7 +24207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>929</v>
       </c>
@@ -24194,8 +24222,12 @@
         <f t="shared" ref="D56" si="6">CONCATENATE(C49,C50,C51,C52,C53,C54,C55,C56)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f>BIN2DEC(D56)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>930</v>
       </c>
@@ -24207,7 +24239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>931</v>
       </c>
@@ -24219,7 +24251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>932</v>
       </c>
@@ -24231,7 +24263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>933</v>
       </c>
@@ -24243,7 +24275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>934</v>
       </c>
@@ -24255,7 +24287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>935</v>
       </c>
@@ -24267,7 +24299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>936</v>
       </c>
@@ -24279,7 +24311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>937</v>
       </c>
@@ -24294,8 +24326,12 @@
         <f t="shared" ref="D64" si="7">CONCATENATE(C57,C58,C59,C60,C61,C62,C63,C64)</f>
         <v>10101011</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f>BIN2DEC(D64)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>938</v>
       </c>
@@ -24307,7 +24343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>939</v>
       </c>
@@ -24319,7 +24355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>940</v>
       </c>
@@ -24331,7 +24367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>941</v>
       </c>
@@ -24343,7 +24379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>942</v>
       </c>
@@ -24355,7 +24391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>943</v>
       </c>
@@ -24367,7 +24403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>944</v>
       </c>
@@ -24379,7 +24415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>945</v>
       </c>
@@ -24394,8 +24430,12 @@
         <f t="shared" ref="D72" si="9">CONCATENATE(C65,C66,C67,C68,C69,C70,C71,C72)</f>
         <v>11111110</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f>BIN2DEC(D72)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>946</v>
       </c>
@@ -24407,7 +24447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>947</v>
       </c>
@@ -24419,7 +24459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>948</v>
       </c>
@@ -24431,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>949</v>
       </c>
@@ -24443,7 +24483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>950</v>
       </c>
@@ -24455,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>951</v>
       </c>
@@ -24467,7 +24507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>952</v>
       </c>
@@ -24479,7 +24519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>953</v>
       </c>
@@ -24494,8 +24534,12 @@
         <f t="shared" ref="D80" si="10">CONCATENATE(C73,C74,C75,C76,C77,C78,C79,C80)</f>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f>BIN2DEC(D80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>954</v>
       </c>
@@ -24507,7 +24551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>955</v>
       </c>
@@ -24519,7 +24563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>956</v>
       </c>
@@ -24531,7 +24575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>957</v>
       </c>
@@ -24543,7 +24587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>958</v>
       </c>
@@ -24555,7 +24599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>959</v>
       </c>
@@ -24567,7 +24611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>960</v>
       </c>
@@ -24579,7 +24623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>961</v>
       </c>
@@ -24594,8 +24638,12 @@
         <f t="shared" ref="D88" si="11">CONCATENATE(C81,C82,C83,C84,C85,C86,C87,C88)</f>
         <v>10110011</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f>BIN2DEC(D88)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>962</v>
       </c>
@@ -24607,7 +24655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>963</v>
       </c>
@@ -24619,7 +24667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>964</v>
       </c>
@@ -24631,7 +24679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>965</v>
       </c>
@@ -24643,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>966</v>
       </c>
@@ -24655,7 +24703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>967</v>
       </c>
@@ -24667,7 +24715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>968</v>
       </c>
@@ -24679,7 +24727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>969</v>
       </c>
@@ -24694,8 +24742,12 @@
         <f t="shared" ref="D96" si="12">CONCATENATE(C89,C90,C91,C92,C93,C94,C95,C96)</f>
         <v>00101010</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f>BIN2DEC(D96)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>970</v>
       </c>
@@ -24707,7 +24759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>971</v>
       </c>
@@ -24719,7 +24771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>972</v>
       </c>
@@ -24731,7 +24783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>973</v>
       </c>
@@ -24743,7 +24795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>974</v>
       </c>
@@ -24755,7 +24807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>975</v>
       </c>
@@ -24767,7 +24819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>976</v>
       </c>
@@ -24779,7 +24831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>977</v>
       </c>
@@ -24794,8 +24846,12 @@
         <f t="shared" ref="D104" si="13">CONCATENATE(C97,C98,C99,C100,C101,C102,C103,C104)</f>
         <v>10101011</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f>BIN2DEC(D104)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>978</v>
       </c>
@@ -24807,7 +24863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>979</v>
       </c>
@@ -24819,7 +24875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>980</v>
       </c>
@@ -24831,7 +24887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>981</v>
       </c>
@@ -24843,7 +24899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>982</v>
       </c>
@@ -24855,7 +24911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>983</v>
       </c>
@@ -24867,7 +24923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>984</v>
       </c>
@@ -24879,7 +24935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>985</v>
       </c>
@@ -24894,8 +24950,12 @@
         <f t="shared" ref="D112" si="14">CONCATENATE(C105,C106,C107,C108,C109,C110,C111,C112)</f>
         <v>00101010</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f>BIN2DEC(D112)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>986</v>
       </c>
@@ -24907,7 +24967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>987</v>
       </c>
@@ -24919,7 +24979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>988</v>
       </c>
@@ -24931,7 +24991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>989</v>
       </c>
@@ -24943,7 +25003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>990</v>
       </c>
@@ -24955,7 +25015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>991</v>
       </c>
@@ -24967,7 +25027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>992</v>
       </c>
@@ -24979,7 +25039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>993</v>
       </c>
@@ -24994,8 +25054,12 @@
         <f t="shared" ref="D120" si="15">CONCATENATE(C113,C114,C115,C116,C117,C118,C119,C120)</f>
         <v>10010101</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f>BIN2DEC(D120)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>994</v>
       </c>
@@ -25007,7 +25071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>995</v>
       </c>
@@ -25019,7 +25083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>996</v>
       </c>
@@ -25031,7 +25095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>997</v>
       </c>
@@ -25043,7 +25107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>998</v>
       </c>
@@ -25055,7 +25119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>999</v>
       </c>
@@ -25067,7 +25131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1000</v>
       </c>
@@ -25079,7 +25143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1001</v>
       </c>
@@ -25094,8 +25158,12 @@
         <f t="shared" ref="D128" si="16">CONCATENATE(C121,C122,C123,C124,C125,C126,C127,C128)</f>
         <v>10011010</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f>BIN2DEC(D128)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1002</v>
       </c>
@@ -25107,7 +25175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1003</v>
       </c>
@@ -25119,7 +25187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1004</v>
       </c>
@@ -25131,7 +25199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1005</v>
       </c>
@@ -25143,7 +25211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1006</v>
       </c>
@@ -25155,7 +25223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1007</v>
       </c>
@@ -25167,7 +25235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1008</v>
       </c>
@@ -25179,7 +25247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1009</v>
       </c>
@@ -25194,8 +25262,12 @@
         <f t="shared" ref="D136" si="18">CONCATENATE(C129,C130,C131,C132,C133,C134,C135,C136)</f>
         <v>01100110</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <f>BIN2DEC(D136)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1010</v>
       </c>
@@ -25207,7 +25279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1011</v>
       </c>
@@ -25219,7 +25291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1012</v>
       </c>
@@ -25231,7 +25303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1013</v>
       </c>
@@ -25243,7 +25315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1014</v>
       </c>
@@ -25255,7 +25327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1015</v>
       </c>
@@ -25267,7 +25339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1016</v>
       </c>
@@ -25279,7 +25351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1017</v>
       </c>
@@ -25294,8 +25366,12 @@
         <f t="shared" ref="D144" si="19">CONCATENATE(C137,C138,C139,C140,C141,C142,C143,C144)</f>
         <v>01011001</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <f>BIN2DEC(D144)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1018</v>
       </c>
@@ -25307,7 +25383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1019</v>
       </c>
@@ -25319,7 +25395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1020</v>
       </c>
@@ -25331,7 +25407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1021</v>
       </c>
@@ -25343,7 +25419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1022</v>
       </c>
@@ -25355,7 +25431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1023</v>
       </c>
@@ -25367,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1024</v>
       </c>
@@ -25379,7 +25455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1025</v>
       </c>
@@ -25394,8 +25470,12 @@
         <f t="shared" ref="D152" si="20">CONCATENATE(C145,C146,C147,C148,C149,C150,C151,C152)</f>
         <v>10011010</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <f>BIN2DEC(D152)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1026</v>
       </c>
@@ -25407,7 +25487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1027</v>
       </c>
@@ -25419,7 +25499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1028</v>
       </c>
@@ -25431,7 +25511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1029</v>
       </c>
@@ -25443,7 +25523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1030</v>
       </c>
@@ -25455,7 +25535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1031</v>
       </c>
@@ -25467,7 +25547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1032</v>
       </c>
@@ -25479,7 +25559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1033</v>
       </c>
@@ -25494,8 +25574,12 @@
         <f t="shared" ref="D160" si="21">CONCATENATE(C153,C154,C155,C156,C157,C158,C159,C160)</f>
         <v>10100101</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <f>BIN2DEC(D160)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1034</v>
       </c>
@@ -25507,7 +25591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1035</v>
       </c>
@@ -25519,7 +25603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1036</v>
       </c>
@@ -25531,7 +25615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1037</v>
       </c>
@@ -25543,7 +25627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1038</v>
       </c>
@@ -25555,7 +25639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1039</v>
       </c>
@@ -25567,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1040</v>
       </c>
@@ -25579,7 +25663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1041</v>
       </c>
@@ -25594,8 +25678,12 @@
         <f t="shared" ref="D168" si="22">CONCATENATE(C161,C162,C163,C164,C165,C166,C167,C168)</f>
         <v>10101001</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <f>BIN2DEC(D168)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1042</v>
       </c>
@@ -25607,7 +25695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1043</v>
       </c>
@@ -25619,7 +25707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1044</v>
       </c>
@@ -25631,7 +25719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1045</v>
       </c>
@@ -25643,7 +25731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1046</v>
       </c>
@@ -25655,7 +25743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1047</v>
       </c>
@@ -25667,7 +25755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1048</v>
       </c>
@@ -25679,7 +25767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1049</v>
       </c>
@@ -25694,8 +25782,12 @@
         <f t="shared" ref="D176" si="23">CONCATENATE(C169,C170,C171,C172,C173,C174,C175,C176)</f>
         <v>10101001</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <f>BIN2DEC(D176)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1050</v>
       </c>
@@ -25707,7 +25799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1051</v>
       </c>
@@ -25719,7 +25811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1052</v>
       </c>
@@ -25731,7 +25823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1053</v>
       </c>
@@ -25743,7 +25835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1054</v>
       </c>
@@ -25755,7 +25847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1055</v>
       </c>
@@ -25767,7 +25859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1056</v>
       </c>
@@ -25779,7 +25871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1057</v>
       </c>
@@ -25794,8 +25886,12 @@
         <f t="shared" ref="D184" si="24">CONCATENATE(C177,C178,C179,C180,C181,C182,C183,C184)</f>
         <v>10011010</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <f>BIN2DEC(D184)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1058</v>
       </c>
@@ -25807,7 +25903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1059</v>
       </c>
@@ -25819,7 +25915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1060</v>
       </c>
@@ -25831,7 +25927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1061</v>
       </c>
@@ -25843,7 +25939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1062</v>
       </c>
@@ -25855,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1063</v>
       </c>
@@ -25867,7 +25963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1064</v>
       </c>
@@ -25879,7 +25975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1065</v>
       </c>
@@ -25894,8 +25990,12 @@
         <f t="shared" ref="D192" si="25">CONCATENATE(C185,C186,C187,C188,C189,C190,C191,C192)</f>
         <v>01010110</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <f>BIN2DEC(D192)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1066</v>
       </c>
@@ -25907,7 +26007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1067</v>
       </c>
@@ -25919,7 +26019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1068</v>
       </c>
@@ -25931,7 +26031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1069</v>
       </c>
@@ -25943,7 +26043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1070</v>
       </c>
@@ -25955,7 +26055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1071</v>
       </c>
@@ -25967,7 +26067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1072</v>
       </c>
@@ -25979,7 +26079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1073</v>
       </c>
@@ -25994,8 +26094,12 @@
         <f t="shared" ref="D200" si="27">CONCATENATE(C193,C194,C195,C196,C197,C198,C199,C200)</f>
         <v>01011001</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <f>BIN2DEC(D200)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1074</v>
       </c>
@@ -26007,7 +26111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1075</v>
       </c>
@@ -26019,7 +26123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1076</v>
       </c>
@@ -26031,7 +26135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1077</v>
       </c>
@@ -26043,7 +26147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1078</v>
       </c>
@@ -26055,7 +26159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1079</v>
       </c>
@@ -26067,7 +26171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1080</v>
       </c>
@@ -26079,7 +26183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1081</v>
       </c>
@@ -26094,8 +26198,12 @@
         <f t="shared" ref="D208" si="28">CONCATENATE(C201,C202,C203,C204,C205,C206,C207,C208)</f>
         <v>10101001</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <f>BIN2DEC(D208)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1082</v>
       </c>
@@ -26107,7 +26215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1083</v>
       </c>
@@ -26119,7 +26227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1084</v>
       </c>
@@ -26131,7 +26239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1085</v>
       </c>
@@ -26143,7 +26251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1086</v>
       </c>
@@ -26155,7 +26263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1087</v>
       </c>
@@ -26167,7 +26275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1088</v>
       </c>
@@ -26179,7 +26287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1089</v>
       </c>
@@ -26194,8 +26302,12 @@
         <f t="shared" ref="D216" si="29">CONCATENATE(C209,C210,C211,C212,C213,C214,C215,C216)</f>
         <v>01100110</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <f>BIN2DEC(D216)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1090</v>
       </c>
@@ -26207,7 +26319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1091</v>
       </c>
@@ -26219,7 +26331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1092</v>
       </c>
@@ -26231,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1093</v>
       </c>
@@ -26243,7 +26355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1094</v>
       </c>
@@ -26255,7 +26367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1095</v>
       </c>
@@ -26267,7 +26379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1096</v>
       </c>
@@ -26279,7 +26391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1097</v>
       </c>
@@ -26294,8 +26406,12 @@
         <f t="shared" ref="D224" si="30">CONCATENATE(C217,C218,C219,C220,C221,C222,C223,C224)</f>
         <v>01011001</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <f>BIN2DEC(D224)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1098</v>
       </c>
@@ -26307,7 +26423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1099</v>
       </c>
@@ -26319,7 +26435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1100</v>
       </c>
@@ -26331,7 +26447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1101</v>
       </c>
@@ -26343,7 +26459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1102</v>
       </c>
@@ -26355,7 +26471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1103</v>
       </c>
@@ -26367,7 +26483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1104</v>
       </c>
@@ -26379,7 +26495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1105</v>
       </c>
@@ -26394,8 +26510,12 @@
         <f t="shared" ref="D232" si="31">CONCATENATE(C225,C226,C227,C228,C229,C230,C231,C232)</f>
         <v>10010110</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <f>BIN2DEC(D232)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1106</v>
       </c>
@@ -26407,7 +26527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1107</v>
       </c>
@@ -26419,7 +26539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1108</v>
       </c>
@@ -26431,7 +26551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1109</v>
       </c>
@@ -26443,7 +26563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1110</v>
       </c>
@@ -26455,7 +26575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1111</v>
       </c>
@@ -26467,7 +26587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1112</v>
       </c>
@@ -26479,7 +26599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1113</v>
       </c>
@@ -26494,8 +26614,12 @@
         <f t="shared" ref="D240" si="32">CONCATENATE(C233,C234,C235,C236,C237,C238,C239,C240)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <f>BIN2DEC(D240)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1114</v>
       </c>
@@ -26507,7 +26631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1115</v>
       </c>
@@ -26519,7 +26643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1116</v>
       </c>
@@ -26531,7 +26655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1117</v>
       </c>
@@ -26543,7 +26667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1118</v>
       </c>
@@ -26555,7 +26679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1119</v>
       </c>
@@ -26567,7 +26691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1120</v>
       </c>
@@ -26579,7 +26703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1121</v>
       </c>
@@ -26594,8 +26718,12 @@
         <f t="shared" ref="D248" si="33">CONCATENATE(C241,C242,C243,C244,C245,C246,C247,C248)</f>
         <v>10100101</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <f>BIN2DEC(D248)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1122</v>
       </c>
@@ -26607,7 +26735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1123</v>
       </c>
@@ -26619,7 +26747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1124</v>
       </c>
@@ -26631,7 +26759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1125</v>
       </c>
@@ -26643,7 +26771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1126</v>
       </c>
@@ -26655,7 +26783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1127</v>
       </c>
@@ -26667,7 +26795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1128</v>
       </c>
@@ -26679,7 +26807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1129</v>
       </c>
@@ -26694,8 +26822,12 @@
         <f t="shared" ref="D256" si="34">CONCATENATE(C249,C250,C251,C252,C253,C254,C255,C256)</f>
         <v>01100101</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <f>BIN2DEC(D256)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1130</v>
       </c>
@@ -26707,7 +26839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1131</v>
       </c>
@@ -26719,7 +26851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1132</v>
       </c>
@@ -26731,7 +26863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1133</v>
       </c>
@@ -26743,7 +26875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1134</v>
       </c>
@@ -26755,7 +26887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1135</v>
       </c>
@@ -26767,7 +26899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1136</v>
       </c>
@@ -26779,7 +26911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1137</v>
       </c>
@@ -26794,8 +26926,12 @@
         <f t="shared" ref="D264" si="36">CONCATENATE(C257,C258,C259,C260,C261,C262,C263,C264)</f>
         <v>01011010</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <f>BIN2DEC(D264)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1138</v>
       </c>
@@ -26807,7 +26943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1139</v>
       </c>
@@ -26819,7 +26955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1140</v>
       </c>
@@ -26831,7 +26967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1141</v>
       </c>
@@ -26843,7 +26979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1142</v>
       </c>
@@ -26855,7 +26991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1143</v>
       </c>
@@ -26867,7 +27003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1144</v>
       </c>
@@ -26879,7 +27015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1145</v>
       </c>
@@ -26894,8 +27030,12 @@
         <f t="shared" ref="D272" si="37">CONCATENATE(C265,C266,C267,C268,C269,C270,C271,C272)</f>
         <v>10010110</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <f>BIN2DEC(D272)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1146</v>
       </c>
@@ -26907,7 +27047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1147</v>
       </c>
@@ -26919,7 +27059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1148</v>
       </c>
@@ -26931,7 +27071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1149</v>
       </c>
@@ -26943,7 +27083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1150</v>
       </c>
@@ -26955,7 +27095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1151</v>
       </c>
@@ -26967,7 +27107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1152</v>
       </c>
@@ -26979,7 +27119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1153</v>
       </c>
@@ -26994,8 +27134,12 @@
         <f t="shared" ref="D280" si="38">CONCATENATE(C273,C274,C275,C276,C277,C278,C279,C280)</f>
         <v>01010101</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <f>BIN2DEC(D280)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1154</v>
       </c>
@@ -27007,7 +27151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1155</v>
       </c>
@@ -27019,7 +27163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1156</v>
       </c>
@@ -27031,7 +27175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1157</v>
       </c>
@@ -27043,7 +27187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1158</v>
       </c>
@@ -27055,7 +27199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1159</v>
       </c>
@@ -27067,7 +27211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1160</v>
       </c>
@@ -27079,7 +27223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1161</v>
       </c>
@@ -27094,8 +27238,12 @@
         <f t="shared" ref="D288" si="39">CONCATENATE(C281,C282,C283,C284,C285,C286,C287,C288)</f>
         <v>10010101</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <f>BIN2DEC(D288)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1162</v>
       </c>
@@ -27107,7 +27255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1163</v>
       </c>
@@ -27119,7 +27267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1164</v>
       </c>
@@ -27131,7 +27279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1165</v>
       </c>
@@ -27143,7 +27291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1166</v>
       </c>
@@ -27155,7 +27303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1167</v>
       </c>
@@ -27167,7 +27315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1168</v>
       </c>
@@ -27179,7 +27327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1169</v>
       </c>
@@ -27194,8 +27342,12 @@
         <f t="shared" ref="D296" si="40">CONCATENATE(C289,C290,C291,C292,C293,C294,C295,C296)</f>
         <v>01100101</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296">
+        <f>BIN2DEC(D296)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1170</v>
       </c>
@@ -27207,7 +27359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1171</v>
       </c>
@@ -27219,7 +27371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1172</v>
       </c>
@@ -27231,7 +27383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1173</v>
       </c>
@@ -27243,7 +27395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1174</v>
       </c>
@@ -27255,7 +27407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1175</v>
       </c>
@@ -27267,7 +27419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1176</v>
       </c>
@@ -27279,7 +27431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1177</v>
       </c>
@@ -27294,8 +27446,12 @@
         <f t="shared" ref="D304" si="41">CONCATENATE(C297,C298,C299,C300,C301,C302,C303,C304)</f>
         <v>01011001</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <f>BIN2DEC(D304)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1178</v>
       </c>
@@ -27307,7 +27463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1179</v>
       </c>
@@ -27319,7 +27475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1180</v>
       </c>
@@ -27331,7 +27487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1181</v>
       </c>
@@ -27343,7 +27499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1182</v>
       </c>
@@ -27355,7 +27511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1183</v>
       </c>
@@ -27367,7 +27523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1184</v>
       </c>
@@ -27379,7 +27535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1185</v>
       </c>
@@ -27394,8 +27550,12 @@
         <f t="shared" ref="D312" si="42">CONCATENATE(C305,C306,C307,C308,C309,C310,C311,C312)</f>
         <v>01100110</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <f>BIN2DEC(D312)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1186</v>
       </c>
@@ -27407,7 +27567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1187</v>
       </c>
@@ -27419,7 +27579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1188</v>
       </c>
@@ -27431,7 +27591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1189</v>
       </c>
@@ -27443,7 +27603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1190</v>
       </c>
@@ -27455,7 +27615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1191</v>
       </c>
@@ -27467,7 +27627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1192</v>
       </c>
@@ -27479,7 +27639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1193</v>
       </c>
@@ -27494,8 +27654,12 @@
         <f t="shared" ref="D320" si="43">CONCATENATE(C313,C314,C315,C316,C317,C318,C319,C320)</f>
         <v>01010101</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <f>BIN2DEC(D320)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1194</v>
       </c>
@@ -27507,7 +27671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1195</v>
       </c>
@@ -27519,7 +27683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1196</v>
       </c>
@@ -27531,7 +27695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1197</v>
       </c>
@@ -27543,7 +27707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1198</v>
       </c>
@@ -27555,7 +27719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1199</v>
       </c>
@@ -27567,7 +27731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1200</v>
       </c>
@@ -27579,7 +27743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1201</v>
       </c>
@@ -27594,8 +27758,12 @@
         <f t="shared" ref="D328" si="45">CONCATENATE(C321,C322,C323,C324,C325,C326,C327,C328)</f>
         <v>10010110</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <f>BIN2DEC(D328)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1202</v>
       </c>
@@ -27607,7 +27775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1203</v>
       </c>
@@ -27619,7 +27787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1204</v>
       </c>
@@ -27631,7 +27799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1205</v>
       </c>
@@ -27643,7 +27811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1206</v>
       </c>
@@ -27655,7 +27823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1207</v>
       </c>
@@ -27667,7 +27835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1208</v>
       </c>
@@ -27679,7 +27847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1209</v>
       </c>
@@ -27694,8 +27862,12 @@
         <f t="shared" ref="D336" si="46">CONCATENATE(C329,C330,C331,C332,C333,C334,C335,C336)</f>
         <v>01101001</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <f>BIN2DEC(D336)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1210</v>
       </c>
@@ -27707,7 +27879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1211</v>
       </c>
@@ -27719,7 +27891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1212</v>
       </c>
@@ -27731,7 +27903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1213</v>
       </c>
@@ -27743,7 +27915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1214</v>
       </c>
@@ -27755,7 +27927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1215</v>
       </c>
@@ -27767,7 +27939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1216</v>
       </c>
@@ -27779,7 +27951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1217</v>
       </c>
@@ -27794,8 +27966,12 @@
         <f t="shared" ref="D344" si="47">CONCATENATE(C337,C338,C339,C340,C341,C342,C343,C344)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <f>BIN2DEC(D344)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1218</v>
       </c>
@@ -27807,7 +27983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1219</v>
       </c>
@@ -27819,7 +27995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1220</v>
       </c>
@@ -27831,7 +28007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1221</v>
       </c>
@@ -27843,7 +28019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1222</v>
       </c>
@@ -27855,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1223</v>
       </c>
@@ -27867,7 +28043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1224</v>
       </c>
@@ -27879,7 +28055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1225</v>
       </c>
@@ -27894,8 +28070,12 @@
         <f t="shared" ref="D352" si="48">CONCATENATE(C345,C346,C347,C348,C349,C350,C351,C352)</f>
         <v>10010110</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <f>BIN2DEC(D352)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1226</v>
       </c>
@@ -27907,7 +28087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1227</v>
       </c>
@@ -27919,7 +28099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1228</v>
       </c>
@@ -27931,7 +28111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1229</v>
       </c>
@@ -27943,7 +28123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1230</v>
       </c>
@@ -27955,7 +28135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1231</v>
       </c>
@@ -27967,7 +28147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1232</v>
       </c>
@@ -27979,7 +28159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1233</v>
       </c>
@@ -27994,8 +28174,12 @@
         <f t="shared" ref="D360" si="49">CONCATENATE(C353,C354,C355,C356,C357,C358,C359,C360)</f>
         <v>10101100</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <f>BIN2DEC(D360)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1234</v>
       </c>
@@ -28007,7 +28191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1235</v>
       </c>
@@ -28019,7 +28203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1236</v>
       </c>
@@ -28031,7 +28215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1237</v>
       </c>
@@ -28043,7 +28227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1238</v>
       </c>
@@ -28055,7 +28239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1239</v>
       </c>
@@ -28067,7 +28251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1240</v>
       </c>
@@ -28079,7 +28263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1241</v>
       </c>
@@ -28094,8 +28278,12 @@
         <f t="shared" ref="D368" si="50">CONCATENATE(C361,C362,C363,C364,C365,C366,C367,C368)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368">
+        <f>BIN2DEC(D368)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1242</v>
       </c>
@@ -28107,7 +28295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1243</v>
       </c>
@@ -28119,7 +28307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1244</v>
       </c>
@@ -28131,7 +28319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1245</v>
       </c>
@@ -28143,7 +28331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1246</v>
       </c>
@@ -28155,7 +28343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1247</v>
       </c>
@@ -28167,7 +28355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1248</v>
       </c>
@@ -28179,7 +28367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1249</v>
       </c>
@@ -28194,8 +28382,12 @@
         <f t="shared" ref="D376" si="51">CONCATENATE(C369,C370,C371,C372,C373,C374,C375,C376)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376">
+        <f>BIN2DEC(D376)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1250</v>
       </c>
@@ -28207,7 +28399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1251</v>
       </c>
@@ -28219,7 +28411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1252</v>
       </c>
@@ -28231,7 +28423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1253</v>
       </c>
@@ -28243,7 +28435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1254</v>
       </c>
@@ -28255,7 +28447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1255</v>
       </c>
@@ -28267,7 +28459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1256</v>
       </c>
@@ -28279,7 +28471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1257</v>
       </c>
@@ -28294,8 +28486,12 @@
         <f t="shared" ref="D384" si="52">CONCATENATE(C377,C378,C379,C380,C381,C382,C383,C384)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384">
+        <f>BIN2DEC(D384)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1258</v>
       </c>
@@ -28307,7 +28503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1259</v>
       </c>
@@ -28319,7 +28515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1260</v>
       </c>
@@ -28331,7 +28527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1261</v>
       </c>
@@ -28343,7 +28539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1262</v>
       </c>
@@ -28355,7 +28551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1263</v>
       </c>
@@ -28367,7 +28563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1264</v>
       </c>
@@ -28379,7 +28575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1265</v>
       </c>
@@ -28394,8 +28590,12 @@
         <f t="shared" ref="D392" si="54">CONCATENATE(C385,C386,C387,C388,C389,C390,C391,C392)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392">
+        <f>BIN2DEC(D392)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1266</v>
       </c>
@@ -28407,7 +28607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1267</v>
       </c>
@@ -28419,7 +28619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1268</v>
       </c>
@@ -28431,7 +28631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1269</v>
       </c>
@@ -28443,7 +28643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1270</v>
       </c>
@@ -28455,7 +28655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1271</v>
       </c>
@@ -28467,7 +28667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1272</v>
       </c>
@@ -28479,7 +28679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1273</v>
       </c>
@@ -28494,8 +28694,12 @@
         <f t="shared" ref="D400" si="55">CONCATENATE(C393,C394,C395,C396,C397,C398,C399,C400)</f>
         <v>10101010</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400">
+        <f>BIN2DEC(D400)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1274</v>
       </c>
@@ -28507,7 +28711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1275</v>
       </c>
@@ -28519,7 +28723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1276</v>
       </c>
@@ -28531,29 +28735,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D404" s="5" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D405" s="5" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D406" s="5" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D407" s="5" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D408" s="5" t="s">
         <v>1685</v>
+      </c>
+      <c r="E408" t="e">
+        <f>BIN2DEC(D408)</f>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
